--- a/Informes/METRADOS/Planilla de metrados INSTALACIONES ESPECIALES AGOSTO-2022 final.xlsx
+++ b/Informes/METRADOS/Planilla de metrados INSTALACIONES ESPECIALES AGOSTO-2022 final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Informes\METRADOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorio\Instalaciones_Especiales\Informes\METRADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C36FDF9-475F-4E98-9873-8A927A4CF4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3EF98D-F12E-4D24-89FD-8A2AD51EDC85}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12615" windowWidth="29040" windowHeight="15720" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1963,95 +1963,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -2100,6 +2011,95 @@
     </xf>
     <xf numFmtId="4" fontId="40" fillId="4" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -4707,145 +4707,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD106"/>
+  <dimension ref="A1:XFD51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="94.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="94.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="10" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15 16384:16384" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15 16384:16384" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15 16384:16384" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15 16384:16384" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="173" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="177"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="175"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15 16384:16384" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15 16384:16384" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="185"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15 16384:16384" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15 16384:16384" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="170" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="174"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="172"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15 16384:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="166" t="s">
+      <c r="F5" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="178" t="s">
+      <c r="G5" s="191"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="178" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15 16384:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
       <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
@@ -4855,42 +4855,42 @@
       <c r="H6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="179"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15 16384:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="180" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="182"/>
     </row>
-    <row r="8" spans="1:15 16384:16384" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15 16384:16384" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="B8" s="182" t="s">
+      <c r="B8" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="182" t="s">
+      <c r="C8" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="183"/>
-      <c r="E8" s="192"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="164"/>
       <c r="F8" s="119"/>
       <c r="G8" s="119"/>
       <c r="H8" s="120"/>
@@ -4899,16 +4899,16 @@
       <c r="K8" s="121"/>
       <c r="L8" s="106"/>
     </row>
-    <row r="9" spans="1:15 16384:16384" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15 16384:16384" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="122"/>
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="184" t="s">
+      <c r="C9" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="185"/>
-      <c r="E9" s="193"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="165"/>
       <c r="F9" s="109"/>
       <c r="G9" s="109"/>
       <c r="H9" s="109"/>
@@ -4919,16 +4919,16 @@
       <c r="M9" s="24"/>
       <c r="XFD9" s="27"/>
     </row>
-    <row r="10" spans="1:15 16384:16384" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15 16384:16384" s="30" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="122"/>
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="158" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="194"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="166"/>
       <c r="F10" s="109"/>
       <c r="G10" s="109"/>
       <c r="H10" s="109"/>
@@ -4939,18 +4939,18 @@
       <c r="M10" s="24"/>
       <c r="N10" s="35"/>
     </row>
-    <row r="11" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="122"/>
-      <c r="B11" s="188" t="s">
+      <c r="B11" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="160" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="189" t="s">
+      <c r="D11" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="193"/>
+      <c r="E11" s="165"/>
       <c r="F11" s="110"/>
       <c r="G11" s="110"/>
       <c r="H11" s="110"/>
@@ -4961,18 +4961,18 @@
       <c r="M11" s="25"/>
       <c r="N11" s="43"/>
     </row>
-    <row r="12" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="122"/>
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="188" t="s">
+      <c r="C12" s="160" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="189" t="s">
+      <c r="D12" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="194">
+      <c r="E12" s="166">
         <v>4</v>
       </c>
       <c r="F12" s="112"/>
@@ -4988,18 +4988,18 @@
       <c r="M12" s="25"/>
       <c r="N12" s="43"/>
     </row>
-    <row r="13" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122"/>
-      <c r="B13" s="188" t="s">
+      <c r="B13" s="160" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="188" t="s">
+      <c r="C13" s="160" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="189" t="s">
+      <c r="D13" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="194">
+      <c r="E13" s="166">
         <v>1</v>
       </c>
       <c r="F13" s="110"/>
@@ -5015,16 +5015,16 @@
       <c r="M13" s="25"/>
       <c r="N13" s="43"/>
     </row>
-    <row r="14" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="122"/>
-      <c r="B14" s="186" t="s">
+      <c r="B14" s="158" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="186" t="s">
+      <c r="C14" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="187"/>
-      <c r="E14" s="194"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="166"/>
       <c r="F14" s="110"/>
       <c r="G14" s="110"/>
       <c r="H14" s="110"/>
@@ -5035,18 +5035,18 @@
       <c r="M14" s="25"/>
       <c r="N14" s="43"/>
     </row>
-    <row r="15" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="122"/>
-      <c r="B15" s="188" t="s">
+      <c r="B15" s="160" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="188" t="s">
+      <c r="C15" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="189" t="s">
+      <c r="D15" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="194"/>
+      <c r="E15" s="166"/>
       <c r="F15" s="110"/>
       <c r="G15" s="110"/>
       <c r="H15" s="110"/>
@@ -5057,18 +5057,18 @@
       <c r="M15" s="25"/>
       <c r="N15" s="43"/>
     </row>
-    <row r="16" spans="1:15 16384:16384" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15 16384:16384" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="160" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="189" t="s">
+      <c r="D16" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="194"/>
+      <c r="E16" s="166"/>
       <c r="F16" s="109"/>
       <c r="G16" s="109"/>
       <c r="H16" s="109"/>
@@ -5079,18 +5079,18 @@
       <c r="M16" s="24"/>
       <c r="XFD16" s="18"/>
     </row>
-    <row r="17" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14 16384:16384" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="124"/>
-      <c r="B17" s="188" t="s">
+      <c r="B17" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="188" t="s">
+      <c r="C17" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="189" t="s">
+      <c r="D17" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="193"/>
+      <c r="E17" s="165"/>
       <c r="F17" s="109"/>
       <c r="G17" s="109"/>
       <c r="H17" s="109"/>
@@ -5101,18 +5101,18 @@
       <c r="M17" s="24"/>
       <c r="XFD17" s="27"/>
     </row>
-    <row r="18" spans="1:14 16384:16384" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14 16384:16384" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="124"/>
-      <c r="B18" s="188" t="s">
+      <c r="B18" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="188" t="s">
+      <c r="C18" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="189" t="s">
+      <c r="D18" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="194"/>
+      <c r="E18" s="166"/>
       <c r="F18" s="109"/>
       <c r="G18" s="109"/>
       <c r="H18" s="109"/>
@@ -5123,18 +5123,18 @@
       <c r="M18" s="24"/>
       <c r="N18" s="35"/>
     </row>
-    <row r="19" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="124"/>
-      <c r="B19" s="188" t="s">
+      <c r="B19" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="188" t="s">
+      <c r="C19" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="189" t="s">
+      <c r="D19" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="194"/>
+      <c r="E19" s="166"/>
       <c r="F19" s="110"/>
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
@@ -5145,16 +5145,16 @@
       <c r="M19" s="25"/>
       <c r="N19" s="43"/>
     </row>
-    <row r="20" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A20" s="124"/>
-      <c r="B20" s="190" t="s">
+      <c r="B20" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="190" t="s">
+      <c r="C20" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="191"/>
-      <c r="E20" s="194"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="166"/>
       <c r="F20" s="108"/>
       <c r="G20" s="116"/>
       <c r="H20" s="117"/>
@@ -5165,18 +5165,18 @@
       <c r="M20" s="25"/>
       <c r="N20" s="43"/>
     </row>
-    <row r="21" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A21" s="124"/>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="188" t="s">
+      <c r="C21" s="160" t="s">
         <v>81</v>
       </c>
-      <c r="D21" s="189" t="s">
+      <c r="D21" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="194">
+      <c r="E21" s="166">
         <v>10</v>
       </c>
       <c r="F21" s="110"/>
@@ -5192,18 +5192,18 @@
       <c r="M21" s="25"/>
       <c r="N21" s="43"/>
     </row>
-    <row r="22" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A22" s="124"/>
-      <c r="B22" s="188" t="s">
+      <c r="B22" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="188" t="s">
+      <c r="C22" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="189" t="s">
+      <c r="D22" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="193">
+      <c r="E22" s="165">
         <v>5</v>
       </c>
       <c r="F22" s="110"/>
@@ -5219,18 +5219,18 @@
       <c r="M22" s="25"/>
       <c r="N22" s="43"/>
     </row>
-    <row r="23" spans="1:14 16384:16384" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14 16384:16384" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="124"/>
-      <c r="B23" s="188" t="s">
+      <c r="B23" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="188" t="s">
+      <c r="C23" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="189" t="s">
+      <c r="D23" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="194"/>
+      <c r="E23" s="166"/>
       <c r="F23" s="109"/>
       <c r="G23" s="109"/>
       <c r="H23" s="109"/>
@@ -5241,16 +5241,16 @@
       <c r="M23" s="24"/>
       <c r="N23" s="35"/>
     </row>
-    <row r="24" spans="1:14 16384:16384" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14 16384:16384" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A24" s="124"/>
-      <c r="B24" s="186" t="s">
+      <c r="B24" s="158" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="186" t="s">
+      <c r="C24" s="158" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="187"/>
-      <c r="E24" s="194"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="166"/>
       <c r="F24" s="110"/>
       <c r="G24" s="110"/>
       <c r="H24" s="110"/>
@@ -5261,18 +5261,18 @@
       <c r="M24" s="24"/>
       <c r="N24" s="35"/>
     </row>
-    <row r="25" spans="1:14 16384:16384" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14 16384:16384" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A25" s="124"/>
-      <c r="B25" s="188" t="s">
+      <c r="B25" s="160" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="160" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="189" t="s">
+      <c r="D25" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="194"/>
+      <c r="E25" s="166"/>
       <c r="F25" s="108"/>
       <c r="G25" s="116"/>
       <c r="H25" s="117"/>
@@ -5283,18 +5283,18 @@
       <c r="M25" s="24"/>
       <c r="N25" s="35"/>
     </row>
-    <row r="26" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A26" s="124"/>
-      <c r="B26" s="188" t="s">
+      <c r="B26" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="188" t="s">
+      <c r="C26" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="189" t="s">
+      <c r="D26" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="193"/>
+      <c r="E26" s="165"/>
       <c r="F26" s="118"/>
       <c r="G26" s="118"/>
       <c r="H26" s="110"/>
@@ -5305,18 +5305,18 @@
       <c r="M26" s="25"/>
       <c r="N26" s="43"/>
     </row>
-    <row r="27" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A27" s="124"/>
-      <c r="B27" s="188" t="s">
+      <c r="B27" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="188" t="s">
+      <c r="C27" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="189" t="s">
+      <c r="D27" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="194"/>
+      <c r="E27" s="166"/>
       <c r="F27" s="118"/>
       <c r="G27" s="118"/>
       <c r="H27" s="110"/>
@@ -5327,16 +5327,16 @@
       <c r="M27" s="25"/>
       <c r="N27" s="43"/>
     </row>
-    <row r="28" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A28" s="124"/>
-      <c r="B28" s="184" t="s">
+      <c r="B28" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="184" t="s">
+      <c r="C28" s="156" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="185"/>
-      <c r="E28" s="194"/>
+      <c r="D28" s="157"/>
+      <c r="E28" s="166"/>
       <c r="F28" s="118"/>
       <c r="G28" s="118"/>
       <c r="H28" s="110"/>
@@ -5347,16 +5347,16 @@
       <c r="M28" s="25"/>
       <c r="N28" s="43"/>
     </row>
-    <row r="29" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A29" s="124"/>
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="158" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="186" t="s">
+      <c r="C29" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="187"/>
-      <c r="E29" s="194"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="166"/>
       <c r="F29" s="118"/>
       <c r="G29" s="118"/>
       <c r="H29" s="110"/>
@@ -5367,18 +5367,18 @@
       <c r="M29" s="25"/>
       <c r="N29" s="43"/>
     </row>
-    <row r="30" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A30" s="124"/>
-      <c r="B30" s="188" t="s">
+      <c r="B30" s="160" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="188" t="s">
+      <c r="C30" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="189" t="s">
+      <c r="D30" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="194"/>
+      <c r="E30" s="166"/>
       <c r="F30" s="118"/>
       <c r="G30" s="118"/>
       <c r="H30" s="110"/>
@@ -5389,16 +5389,16 @@
       <c r="M30" s="25"/>
       <c r="N30" s="43"/>
     </row>
-    <row r="31" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A31" s="124"/>
-      <c r="B31" s="186" t="s">
+      <c r="B31" s="158" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="186" t="s">
+      <c r="C31" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="187"/>
-      <c r="E31" s="194"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="166"/>
       <c r="F31" s="118"/>
       <c r="G31" s="118"/>
       <c r="H31" s="110"/>
@@ -5409,18 +5409,18 @@
       <c r="M31" s="25"/>
       <c r="N31" s="43"/>
     </row>
-    <row r="32" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14 16384:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A32" s="124"/>
-      <c r="B32" s="188" t="s">
+      <c r="B32" s="160" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="188" t="s">
+      <c r="C32" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="189" t="s">
+      <c r="D32" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="194">
+      <c r="E32" s="166">
         <v>20</v>
       </c>
       <c r="F32" s="110"/>
@@ -5436,18 +5436,18 @@
       <c r="M32" s="25"/>
       <c r="N32" s="43"/>
     </row>
-    <row r="33" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A33" s="124"/>
-      <c r="B33" s="188" t="s">
+      <c r="B33" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="188" t="s">
+      <c r="C33" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="189" t="s">
+      <c r="D33" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="194">
+      <c r="E33" s="166">
         <v>5</v>
       </c>
       <c r="F33" s="108"/>
@@ -5463,18 +5463,18 @@
       <c r="M33" s="25"/>
       <c r="N33" s="43"/>
     </row>
-    <row r="34" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A34" s="124"/>
-      <c r="B34" s="188" t="s">
+      <c r="B34" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="188" t="s">
+      <c r="C34" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="189" t="s">
+      <c r="D34" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="194">
+      <c r="E34" s="166">
         <v>1</v>
       </c>
       <c r="F34" s="110"/>
@@ -5490,18 +5490,18 @@
       <c r="M34" s="25"/>
       <c r="N34" s="43"/>
     </row>
-    <row r="35" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A35" s="124"/>
-      <c r="B35" s="188" t="s">
+      <c r="B35" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="188" t="s">
+      <c r="C35" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="D35" s="189" t="s">
+      <c r="D35" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="194">
+      <c r="E35" s="166">
         <v>1</v>
       </c>
       <c r="F35" s="110"/>
@@ -5517,18 +5517,18 @@
       <c r="M35" s="25"/>
       <c r="N35" s="43"/>
     </row>
-    <row r="36" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A36" s="124"/>
-      <c r="B36" s="188" t="s">
+      <c r="B36" s="160" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="188" t="s">
+      <c r="C36" s="160" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="189" t="s">
+      <c r="D36" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="194"/>
+      <c r="E36" s="166"/>
       <c r="F36" s="110"/>
       <c r="G36" s="110"/>
       <c r="H36" s="110"/>
@@ -5539,18 +5539,18 @@
       <c r="M36" s="25"/>
       <c r="N36" s="43"/>
     </row>
-    <row r="37" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A37" s="124"/>
-      <c r="B37" s="188" t="s">
+      <c r="B37" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="188" t="s">
+      <c r="C37" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="189" t="s">
+      <c r="D37" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="194"/>
+      <c r="E37" s="166"/>
       <c r="F37" s="110"/>
       <c r="G37" s="110"/>
       <c r="H37" s="110"/>
@@ -5561,16 +5561,16 @@
       <c r="M37" s="25"/>
       <c r="N37" s="43"/>
     </row>
-    <row r="38" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A38" s="124"/>
-      <c r="B38" s="186" t="s">
+      <c r="B38" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="186" t="s">
+      <c r="C38" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="187"/>
-      <c r="E38" s="194"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="166"/>
       <c r="F38" s="110"/>
       <c r="G38" s="110"/>
       <c r="H38" s="110"/>
@@ -5581,18 +5581,18 @@
       <c r="M38" s="25"/>
       <c r="N38" s="43"/>
     </row>
-    <row r="39" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A39" s="124"/>
-      <c r="B39" s="188" t="s">
+      <c r="B39" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="188" t="s">
+      <c r="C39" s="160" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="189" t="s">
+      <c r="D39" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="194">
+      <c r="E39" s="166">
         <v>10</v>
       </c>
       <c r="F39" s="110"/>
@@ -5608,16 +5608,16 @@
       <c r="M39" s="25"/>
       <c r="N39" s="43"/>
     </row>
-    <row r="40" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A40" s="124"/>
-      <c r="B40" s="184" t="s">
+      <c r="B40" s="156" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="184" t="s">
+      <c r="C40" s="156" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="185"/>
-      <c r="E40" s="194"/>
+      <c r="D40" s="157"/>
+      <c r="E40" s="166"/>
       <c r="F40" s="110"/>
       <c r="G40" s="110"/>
       <c r="H40" s="110"/>
@@ -5628,16 +5628,16 @@
       <c r="M40" s="25"/>
       <c r="N40" s="43"/>
     </row>
-    <row r="41" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A41" s="124"/>
-      <c r="B41" s="186" t="s">
+      <c r="B41" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="186" t="s">
+      <c r="C41" s="158" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="187"/>
-      <c r="E41" s="194"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="166"/>
       <c r="F41" s="110"/>
       <c r="G41" s="110"/>
       <c r="H41" s="110"/>
@@ -5648,18 +5648,18 @@
       <c r="M41" s="25"/>
       <c r="N41" s="43"/>
     </row>
-    <row r="42" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A42" s="124"/>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="188" t="s">
+      <c r="C42" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="189" t="s">
+      <c r="D42" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="194"/>
+      <c r="E42" s="166"/>
       <c r="F42" s="110"/>
       <c r="G42" s="110"/>
       <c r="H42" s="110"/>
@@ -5670,16 +5670,16 @@
       <c r="M42" s="25"/>
       <c r="N42" s="43"/>
     </row>
-    <row r="43" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A43" s="124"/>
-      <c r="B43" s="186" t="s">
+      <c r="B43" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="186" t="s">
+      <c r="C43" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="187"/>
-      <c r="E43" s="194"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="166"/>
       <c r="F43" s="110"/>
       <c r="G43" s="110"/>
       <c r="H43" s="110"/>
@@ -5690,16 +5690,16 @@
       <c r="M43" s="25"/>
       <c r="N43" s="43"/>
     </row>
-    <row r="44" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A44" s="124"/>
-      <c r="B44" s="190" t="s">
+      <c r="B44" s="162" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="190" t="s">
+      <c r="C44" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="191"/>
-      <c r="E44" s="194"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="166"/>
       <c r="F44" s="110"/>
       <c r="G44" s="110"/>
       <c r="H44" s="110"/>
@@ -5710,18 +5710,18 @@
       <c r="M44" s="25"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A45" s="124"/>
-      <c r="B45" s="188" t="s">
+      <c r="B45" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="188" t="s">
+      <c r="C45" s="160" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="189" t="s">
+      <c r="D45" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="194"/>
+      <c r="E45" s="166"/>
       <c r="F45" s="110"/>
       <c r="G45" s="110"/>
       <c r="H45" s="110"/>
@@ -5732,18 +5732,18 @@
       <c r="M45" s="25"/>
       <c r="N45" s="43"/>
     </row>
-    <row r="46" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A46" s="124"/>
-      <c r="B46" s="188" t="s">
+      <c r="B46" s="160" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="188" t="s">
+      <c r="C46" s="160" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="189" t="s">
+      <c r="D46" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="194"/>
+      <c r="E46" s="166"/>
       <c r="F46" s="110"/>
       <c r="G46" s="110"/>
       <c r="H46" s="110"/>
@@ -5754,18 +5754,18 @@
       <c r="M46" s="25"/>
       <c r="N46" s="43"/>
     </row>
-    <row r="47" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A47" s="124"/>
-      <c r="B47" s="188" t="s">
+      <c r="B47" s="160" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="188" t="s">
+      <c r="C47" s="160" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="189" t="s">
+      <c r="D47" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="194"/>
+      <c r="E47" s="166"/>
       <c r="F47" s="110"/>
       <c r="G47" s="110"/>
       <c r="H47" s="110"/>
@@ -5776,18 +5776,18 @@
       <c r="M47" s="25"/>
       <c r="N47" s="43"/>
     </row>
-    <row r="48" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A48" s="125"/>
-      <c r="B48" s="188" t="s">
+      <c r="B48" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="C48" s="188" t="s">
+      <c r="C48" s="160" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="189" t="s">
+      <c r="D48" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="194"/>
+      <c r="E48" s="166"/>
       <c r="F48" s="109"/>
       <c r="G48" s="109"/>
       <c r="H48" s="109"/>
@@ -5796,18 +5796,18 @@
       <c r="K48" s="109"/>
       <c r="L48" s="141"/>
     </row>
-    <row r="49" spans="1:16384" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16384" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A49" s="125"/>
-      <c r="B49" s="188" t="s">
+      <c r="B49" s="160" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="188" t="s">
+      <c r="C49" s="160" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="189" t="s">
+      <c r="D49" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="194"/>
+      <c r="E49" s="166"/>
       <c r="F49" s="109"/>
       <c r="G49" s="109"/>
       <c r="H49" s="109"/>
@@ -5816,16 +5816,16 @@
       <c r="K49" s="109"/>
       <c r="L49" s="141"/>
     </row>
-    <row r="50" spans="1:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16384" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A50" s="125"/>
-      <c r="B50" s="184" t="s">
+      <c r="B50" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="C50" s="184" t="s">
+      <c r="C50" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="185"/>
-      <c r="E50" s="194"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="166"/>
       <c r="F50" s="109"/>
       <c r="G50" s="109"/>
       <c r="H50" s="109"/>
@@ -22206,18 +22206,18 @@
       <c r="XFC50" s="30"/>
       <c r="XFD50" s="64"/>
     </row>
-    <row r="51" spans="1:16384" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16384" s="30" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A51" s="125"/>
-      <c r="B51" s="188" t="s">
+      <c r="B51" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="188" t="s">
+      <c r="C51" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="D51" s="189" t="s">
+      <c r="D51" s="161" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="194">
+      <c r="E51" s="166">
         <v>5</v>
       </c>
       <c r="F51" s="110"/>
@@ -22231,673 +22231,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="19"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="K5:K6"/>
@@ -22907,10 +22242,15 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22922,140 +22262,140 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="100.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="100.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="30"/>
+    <col min="14" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15 16384:16384" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15 16384:16384" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15 16384:16384" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15 16384:16384" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="177"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="175"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15 16384:16384" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15 16384:16384" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="185"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15 16384:16384" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15 16384:16384" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="174"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="172"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15 16384:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="166" t="s">
+      <c r="F5" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="178" t="s">
+      <c r="G5" s="191"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="178" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15 16384:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
       <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
@@ -23065,33 +22405,33 @@
       <c r="H6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="179"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15 16384:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="180" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
     </row>
-    <row r="8" spans="1:15 16384:16384" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15 16384:16384" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="131" t="s">
         <v>37</v>
@@ -23109,7 +22449,7 @@
       <c r="K8" s="121"/>
       <c r="L8" s="106"/>
     </row>
-    <row r="9" spans="1:15 16384:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15 16384:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="122"/>
       <c r="B9" s="126" t="s">
         <v>38</v>
@@ -23129,7 +22469,7 @@
       <c r="M9" s="24"/>
       <c r="XFD9" s="27"/>
     </row>
-    <row r="10" spans="1:15 16384:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15 16384:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="122"/>
       <c r="B10" s="128" t="s">
         <v>39</v>
@@ -23149,7 +22489,7 @@
       <c r="M10" s="24"/>
       <c r="N10" s="35"/>
     </row>
-    <row r="11" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="122"/>
       <c r="B11" s="129" t="s">
         <v>40</v>
@@ -23174,7 +22514,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="43"/>
     </row>
-    <row r="12" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="122"/>
       <c r="B12" s="130"/>
       <c r="C12" s="147"/>
@@ -23192,7 +22532,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="43"/>
     </row>
-    <row r="13" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="122"/>
       <c r="B13" s="128" t="s">
         <v>42</v>
@@ -23212,7 +22552,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="43"/>
     </row>
-    <row r="14" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="122"/>
       <c r="B14" s="129" t="s">
         <v>43</v>
@@ -23237,7 +22577,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="43"/>
     </row>
-    <row r="15" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="122"/>
       <c r="B15" s="129"/>
       <c r="C15" s="147"/>
@@ -23255,7 +22595,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="43"/>
     </row>
-    <row r="16" spans="1:15 16384:16384" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="129" t="s">
         <v>44</v>
@@ -23280,7 +22620,7 @@
       <c r="M16" s="24"/>
       <c r="XFD16" s="18"/>
     </row>
-    <row r="17" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A17" s="124"/>
       <c r="B17" s="129"/>
       <c r="C17" s="147"/>
@@ -23298,7 +22638,7 @@
       <c r="M17" s="24"/>
       <c r="XFD17" s="27"/>
     </row>
-    <row r="18" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A18" s="124"/>
       <c r="B18" s="129" t="s">
         <v>45</v>
@@ -23323,7 +22663,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="35"/>
     </row>
-    <row r="19" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="124"/>
       <c r="B19" s="129"/>
       <c r="C19" s="147"/>
@@ -23341,7 +22681,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="43"/>
     </row>
-    <row r="20" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="124"/>
       <c r="B20" s="129" t="s">
         <v>46</v>
@@ -23366,7 +22706,7 @@
       <c r="M20" s="25"/>
       <c r="N20" s="43"/>
     </row>
-    <row r="21" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="124"/>
       <c r="B21" s="129"/>
       <c r="C21" s="147"/>
@@ -23384,7 +22724,7 @@
       <c r="M21" s="25"/>
       <c r="N21" s="43"/>
     </row>
-    <row r="22" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="124"/>
       <c r="B22" s="129" t="s">
         <v>47</v>
@@ -23409,7 +22749,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="43"/>
     </row>
-    <row r="23" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A23" s="124"/>
       <c r="B23" s="129"/>
       <c r="C23" s="147"/>
@@ -23427,7 +22767,7 @@
       <c r="M23" s="24"/>
       <c r="N23" s="35"/>
     </row>
-    <row r="24" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A24" s="124"/>
       <c r="B24" s="129" t="s">
         <v>48</v>
@@ -23452,7 +22792,7 @@
       <c r="M24" s="24"/>
       <c r="N24" s="35"/>
     </row>
-    <row r="25" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A25" s="124"/>
       <c r="B25" s="129"/>
       <c r="C25" s="147"/>
@@ -23470,7 +22810,7 @@
       <c r="M25" s="24"/>
       <c r="N25" s="35"/>
     </row>
-    <row r="26" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="124"/>
       <c r="B26" s="129" t="s">
         <v>49</v>
@@ -23495,7 +22835,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="43"/>
     </row>
-    <row r="27" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="124"/>
       <c r="B27" s="129"/>
       <c r="C27" s="147"/>
@@ -23513,7 +22853,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="43"/>
     </row>
-    <row r="28" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="124"/>
       <c r="B28" s="129" t="s">
         <v>50</v>
@@ -23538,7 +22878,7 @@
       <c r="M28" s="25"/>
       <c r="N28" s="43"/>
     </row>
-    <row r="29" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="124"/>
       <c r="B29" s="129"/>
       <c r="C29" s="147"/>
@@ -23556,7 +22896,7 @@
       <c r="M29" s="25"/>
       <c r="N29" s="43"/>
     </row>
-    <row r="30" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="124"/>
       <c r="B30" s="129" t="s">
         <v>51</v>
@@ -23581,7 +22921,7 @@
       <c r="M30" s="25"/>
       <c r="N30" s="43"/>
     </row>
-    <row r="31" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="124"/>
       <c r="B31" s="129"/>
       <c r="C31" s="147"/>
@@ -23599,7 +22939,7 @@
       <c r="M31" s="25"/>
       <c r="N31" s="43"/>
     </row>
-    <row r="32" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="124"/>
       <c r="B32" s="129" t="s">
         <v>52</v>
@@ -23624,7 +22964,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="43"/>
     </row>
-    <row r="33" spans="1:15" s="31" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" s="31" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="132"/>
       <c r="B33" s="133"/>
       <c r="C33" s="148"/>
@@ -23642,7 +22982,7 @@
       <c r="M33" s="25"/>
       <c r="N33" s="43"/>
     </row>
-    <row r="34" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="65"/>
       <c r="C34" s="66"/>
@@ -23659,7 +22999,7 @@
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
     </row>
-    <row r="35" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="8"/>
@@ -23676,7 +23016,7 @@
       <c r="N35" s="32"/>
       <c r="O35" s="32"/>
     </row>
-    <row r="36" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="8"/>
@@ -23693,7 +23033,7 @@
       <c r="N36" s="32"/>
       <c r="O36" s="32"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="8"/>
       <c r="E37" s="19"/>
@@ -23729,140 +23069,140 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="30" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="30"/>
+    <col min="14" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15 16384:16384" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15 16384:16384" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="167" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15 16384:16384" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15 16384:16384" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="176"/>
-      <c r="F2" s="176"/>
-      <c r="G2" s="176"/>
-      <c r="H2" s="176"/>
-      <c r="I2" s="176"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="177"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="175"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15 16384:16384" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15 16384:16384" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="185"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15 16384:16384" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15 16384:16384" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="174"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="171"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
+      <c r="K4" s="171"/>
+      <c r="L4" s="172"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15 16384:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="166" t="s">
+      <c r="F5" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="178" t="s">
+      <c r="G5" s="191"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="178" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="178" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15 16384:16384" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15 16384:16384" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
-      <c r="B6" s="163"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="179"/>
+      <c r="E6" s="179"/>
       <c r="F6" s="14" t="s">
         <v>7</v>
       </c>
@@ -23872,33 +23212,33 @@
       <c r="H6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="179"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="179"/>
+      <c r="K6" s="179"/>
+      <c r="L6" s="179"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15 16384:16384" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="193" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
     </row>
-    <row r="8" spans="1:15 16384:16384" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="80"/>
       <c r="C8" s="81"/>
@@ -23912,7 +23252,7 @@
       <c r="K8" s="85"/>
       <c r="L8" s="86"/>
     </row>
-    <row r="9" spans="1:15 16384:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15 16384:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="87"/>
       <c r="C9" s="16"/>
@@ -23928,7 +23268,7 @@
       <c r="M9" s="24"/>
       <c r="XFD9" s="27"/>
     </row>
-    <row r="10" spans="1:15 16384:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15 16384:16384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
@@ -23944,7 +23284,7 @@
       <c r="M10" s="24"/>
       <c r="N10" s="35"/>
     </row>
-    <row r="11" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="17"/>
       <c r="C11" s="57"/>
@@ -23960,7 +23300,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="43"/>
     </row>
-    <row r="12" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="17"/>
       <c r="C12" s="56"/>
@@ -23976,7 +23316,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="43"/>
     </row>
-    <row r="13" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="17"/>
       <c r="C13" s="38"/>
@@ -23992,7 +23332,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="43"/>
     </row>
-    <row r="14" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="17"/>
       <c r="C14" s="38"/>
@@ -24008,7 +23348,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="43"/>
     </row>
-    <row r="15" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15 16384:16384" s="31" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="17"/>
       <c r="C15" s="33"/>
@@ -24024,7 +23364,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="43"/>
     </row>
-    <row r="16" spans="1:15 16384:16384" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15 16384:16384" x14ac:dyDescent="0.2">
       <c r="A16" s="28"/>
       <c r="B16" s="87"/>
       <c r="C16" s="16"/>
@@ -24040,7 +23380,7 @@
       <c r="M16" s="24"/>
       <c r="XFD16" s="18"/>
     </row>
-    <row r="17" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="87"/>
       <c r="C17" s="16"/>
@@ -24056,7 +23396,7 @@
       <c r="M17" s="24"/>
       <c r="XFD17" s="27"/>
     </row>
-    <row r="18" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="17"/>
       <c r="C18" s="16"/>
@@ -24072,7 +23412,7 @@
       <c r="M18" s="24"/>
       <c r="N18" s="35"/>
     </row>
-    <row r="19" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="17"/>
       <c r="C19" s="57"/>
@@ -24088,7 +23428,7 @@
       <c r="M19" s="25"/>
       <c r="N19" s="43"/>
     </row>
-    <row r="20" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="17"/>
       <c r="C20" s="47"/>
@@ -24104,7 +23444,7 @@
       <c r="M20" s="25"/>
       <c r="N20" s="43"/>
     </row>
-    <row r="21" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="17"/>
       <c r="C21" s="38"/>
@@ -24120,7 +23460,7 @@
       <c r="M21" s="25"/>
       <c r="N21" s="43"/>
     </row>
-    <row r="22" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="17"/>
       <c r="C22" s="33"/>
@@ -24136,7 +23476,7 @@
       <c r="M22" s="25"/>
       <c r="N22" s="43"/>
     </row>
-    <row r="23" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="17"/>
       <c r="C23" s="16"/>
@@ -24152,7 +23492,7 @@
       <c r="M23" s="24"/>
       <c r="N23" s="35"/>
     </row>
-    <row r="24" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="17"/>
       <c r="C24" s="57"/>
@@ -24168,7 +23508,7 @@
       <c r="M24" s="24"/>
       <c r="N24" s="35"/>
     </row>
-    <row r="25" spans="1:14 16384:16384" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14 16384:16384" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="17"/>
       <c r="C25" s="47"/>
@@ -24184,7 +23524,7 @@
       <c r="M25" s="24"/>
       <c r="N25" s="35"/>
     </row>
-    <row r="26" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="17"/>
       <c r="C26" s="33"/>
@@ -24200,7 +23540,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="43"/>
     </row>
-    <row r="27" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="17"/>
       <c r="C27" s="33"/>
@@ -24216,7 +23556,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="43"/>
     </row>
-    <row r="28" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="17"/>
       <c r="C28" s="33"/>
@@ -24232,7 +23572,7 @@
       <c r="M28" s="25"/>
       <c r="N28" s="43"/>
     </row>
-    <row r="29" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="17"/>
       <c r="C29" s="33"/>
@@ -24248,7 +23588,7 @@
       <c r="M29" s="25"/>
       <c r="N29" s="43"/>
     </row>
-    <row r="30" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="17"/>
       <c r="C30" s="33"/>
@@ -24264,7 +23604,7 @@
       <c r="M30" s="25"/>
       <c r="N30" s="43"/>
     </row>
-    <row r="31" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="17"/>
       <c r="C31" s="33"/>
@@ -24280,7 +23620,7 @@
       <c r="M31" s="25"/>
       <c r="N31" s="43"/>
     </row>
-    <row r="32" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14 16384:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="17"/>
       <c r="C32" s="57"/>
@@ -24296,7 +23636,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="43"/>
     </row>
-    <row r="33" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="17"/>
       <c r="C33" s="47"/>
@@ -24312,7 +23652,7 @@
       <c r="M33" s="25"/>
       <c r="N33" s="43"/>
     </row>
-    <row r="34" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="17"/>
       <c r="C34" s="38"/>
@@ -24328,7 +23668,7 @@
       <c r="M34" s="25"/>
       <c r="N34" s="43"/>
     </row>
-    <row r="35" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="17"/>
       <c r="C35" s="38"/>
@@ -24344,7 +23684,7 @@
       <c r="M35" s="25"/>
       <c r="N35" s="43"/>
     </row>
-    <row r="36" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="17"/>
       <c r="C36" s="38"/>
@@ -24360,7 +23700,7 @@
       <c r="M36" s="25"/>
       <c r="N36" s="43"/>
     </row>
-    <row r="37" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="17"/>
       <c r="C37" s="38"/>
@@ -24376,7 +23716,7 @@
       <c r="M37" s="25"/>
       <c r="N37" s="43"/>
     </row>
-    <row r="38" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="17"/>
       <c r="C38" s="38"/>
@@ -24392,7 +23732,7 @@
       <c r="M38" s="25"/>
       <c r="N38" s="43"/>
     </row>
-    <row r="39" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="17"/>
       <c r="C39" s="38"/>
@@ -24408,7 +23748,7 @@
       <c r="M39" s="25"/>
       <c r="N39" s="43"/>
     </row>
-    <row r="40" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="17"/>
       <c r="C40" s="38"/>
@@ -24424,7 +23764,7 @@
       <c r="M40" s="25"/>
       <c r="N40" s="43"/>
     </row>
-    <row r="41" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="17"/>
       <c r="C41" s="38"/>
@@ -24440,7 +23780,7 @@
       <c r="M41" s="25"/>
       <c r="N41" s="43"/>
     </row>
-    <row r="42" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="17"/>
       <c r="C42" s="38"/>
@@ -24456,7 +23796,7 @@
       <c r="M42" s="25"/>
       <c r="N42" s="43"/>
     </row>
-    <row r="43" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="17"/>
       <c r="C43" s="38"/>
@@ -24472,7 +23812,7 @@
       <c r="M43" s="25"/>
       <c r="N43" s="43"/>
     </row>
-    <row r="44" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="17"/>
       <c r="C44" s="38"/>
@@ -24488,7 +23828,7 @@
       <c r="M44" s="25"/>
       <c r="N44" s="43"/>
     </row>
-    <row r="45" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="17"/>
       <c r="C45" s="38"/>
@@ -24504,7 +23844,7 @@
       <c r="M45" s="25"/>
       <c r="N45" s="43"/>
     </row>
-    <row r="46" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="17"/>
       <c r="C46" s="38"/>
@@ -24520,7 +23860,7 @@
       <c r="M46" s="25"/>
       <c r="N46" s="43"/>
     </row>
-    <row r="47" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="17"/>
       <c r="C47" s="33"/>
@@ -24536,7 +23876,7 @@
       <c r="M47" s="25"/>
       <c r="N47" s="43"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B48" s="89"/>
       <c r="C48" s="16"/>
       <c r="D48" s="16"/>
@@ -24549,7 +23889,7 @@
       <c r="K48" s="88"/>
       <c r="L48" s="29"/>
     </row>
-    <row r="49" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B49" s="87"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -24562,7 +23902,7 @@
       <c r="K49" s="88"/>
       <c r="L49" s="29"/>
     </row>
-    <row r="50" spans="1:16384" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16384" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="87"/>
       <c r="C50" s="16"/>
@@ -40948,7 +40288,7 @@
       <c r="XFC50" s="30"/>
       <c r="XFD50" s="64"/>
     </row>
-    <row r="51" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B51" s="23"/>
       <c r="C51" s="16"/>
       <c r="D51" s="36"/>
@@ -40961,7 +40301,7 @@
       <c r="K51" s="34"/>
       <c r="L51" s="26"/>
     </row>
-    <row r="52" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B52" s="23"/>
       <c r="C52" s="56"/>
       <c r="D52" s="52"/>
@@ -40974,7 +40314,7 @@
       <c r="K52" s="55"/>
       <c r="L52" s="26"/>
     </row>
-    <row r="53" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B53" s="23"/>
       <c r="C53" s="90"/>
       <c r="D53" s="42"/>
@@ -40987,7 +40327,7 @@
       <c r="K53" s="34"/>
       <c r="L53" s="26"/>
     </row>
-    <row r="54" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B54" s="23"/>
       <c r="C54" s="38"/>
       <c r="D54" s="36"/>
@@ -41000,7 +40340,7 @@
       <c r="K54" s="55"/>
       <c r="L54" s="91"/>
     </row>
-    <row r="55" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B55" s="23"/>
       <c r="C55" s="38"/>
       <c r="D55" s="36"/>
@@ -41013,7 +40353,7 @@
       <c r="K55" s="34"/>
       <c r="L55" s="92"/>
     </row>
-    <row r="56" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B56" s="23"/>
       <c r="C56" s="38"/>
       <c r="D56" s="36"/>
@@ -41026,7 +40366,7 @@
       <c r="K56" s="34"/>
       <c r="L56" s="92"/>
     </row>
-    <row r="57" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B57" s="23"/>
       <c r="C57" s="38"/>
       <c r="D57" s="36"/>
@@ -41039,7 +40379,7 @@
       <c r="K57" s="34"/>
       <c r="L57" s="92"/>
     </row>
-    <row r="58" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B58" s="23"/>
       <c r="C58" s="38"/>
       <c r="D58" s="36"/>
@@ -41052,7 +40392,7 @@
       <c r="K58" s="34"/>
       <c r="L58" s="92"/>
     </row>
-    <row r="59" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B59" s="23"/>
       <c r="C59" s="38"/>
       <c r="D59" s="36"/>
@@ -41065,7 +40405,7 @@
       <c r="K59" s="34"/>
       <c r="L59" s="92"/>
     </row>
-    <row r="60" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B60" s="23"/>
       <c r="C60" s="90"/>
       <c r="D60" s="42"/>
@@ -41078,7 +40418,7 @@
       <c r="K60" s="34"/>
       <c r="L60" s="92"/>
     </row>
-    <row r="61" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B61" s="23"/>
       <c r="C61" s="38"/>
       <c r="D61" s="36"/>
@@ -41091,7 +40431,7 @@
       <c r="K61" s="34"/>
       <c r="L61" s="92"/>
     </row>
-    <row r="62" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B62" s="23"/>
       <c r="C62" s="33"/>
       <c r="D62" s="36"/>
@@ -41104,7 +40444,7 @@
       <c r="K62" s="34"/>
       <c r="L62" s="92"/>
     </row>
-    <row r="63" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B63" s="23"/>
       <c r="C63" s="56"/>
       <c r="D63" s="52"/>
@@ -41117,7 +40457,7 @@
       <c r="K63" s="34"/>
       <c r="L63" s="92"/>
     </row>
-    <row r="64" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B64" s="23"/>
       <c r="C64" s="90"/>
       <c r="D64" s="42"/>
@@ -41130,7 +40470,7 @@
       <c r="K64" s="34"/>
       <c r="L64" s="92"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="23"/>
       <c r="C65" s="38"/>
       <c r="D65" s="42"/>
@@ -41143,7 +40483,7 @@
       <c r="K65" s="34"/>
       <c r="L65" s="92"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B66" s="23"/>
       <c r="C66" s="33"/>
       <c r="D66" s="42"/>
@@ -41156,7 +40496,7 @@
       <c r="K66" s="34"/>
       <c r="L66" s="92"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="23"/>
       <c r="C67" s="56"/>
       <c r="D67" s="52"/>
@@ -41169,7 +40509,7 @@
       <c r="K67" s="34"/>
       <c r="L67" s="92"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B68" s="23"/>
       <c r="C68" s="90"/>
       <c r="D68" s="42"/>
@@ -41182,7 +40522,7 @@
       <c r="K68" s="34"/>
       <c r="L68" s="92"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="23"/>
       <c r="C69" s="38"/>
       <c r="D69" s="36"/>
@@ -41195,7 +40535,7 @@
       <c r="K69" s="34"/>
       <c r="L69" s="92"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="23"/>
       <c r="C70" s="38"/>
       <c r="D70" s="36"/>
@@ -41208,7 +40548,7 @@
       <c r="K70" s="34"/>
       <c r="L70" s="92"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="23"/>
       <c r="C71" s="38"/>
       <c r="D71" s="36"/>
@@ -41221,7 +40561,7 @@
       <c r="K71" s="34"/>
       <c r="L71" s="92"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="23"/>
       <c r="C72" s="38"/>
       <c r="D72" s="36"/>
@@ -41234,7 +40574,7 @@
       <c r="K72" s="34"/>
       <c r="L72" s="92"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="23"/>
       <c r="C73" s="38"/>
       <c r="D73" s="36"/>
@@ -41247,7 +40587,7 @@
       <c r="K73" s="34"/>
       <c r="L73" s="92"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="23"/>
       <c r="C74" s="38"/>
       <c r="D74" s="36"/>
@@ -41260,7 +40600,7 @@
       <c r="K74" s="34"/>
       <c r="L74" s="92"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B75" s="23"/>
       <c r="C75" s="38"/>
       <c r="D75" s="36"/>
@@ -41273,7 +40613,7 @@
       <c r="K75" s="34"/>
       <c r="L75" s="92"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B76" s="23"/>
       <c r="C76" s="38"/>
       <c r="D76" s="36"/>
@@ -41286,7 +40626,7 @@
       <c r="K76" s="34"/>
       <c r="L76" s="92"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B77" s="23"/>
       <c r="C77" s="38"/>
       <c r="D77" s="36"/>
@@ -41299,7 +40639,7 @@
       <c r="K77" s="34"/>
       <c r="L77" s="92"/>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="23"/>
       <c r="C78" s="38"/>
       <c r="D78" s="36"/>
@@ -41312,7 +40652,7 @@
       <c r="K78" s="34"/>
       <c r="L78" s="92"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="23"/>
       <c r="C79" s="38"/>
       <c r="D79" s="36"/>
@@ -41325,7 +40665,7 @@
       <c r="K79" s="34"/>
       <c r="L79" s="92"/>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B80" s="23"/>
       <c r="C80" s="38"/>
       <c r="D80" s="36"/>
@@ -41338,7 +40678,7 @@
       <c r="K80" s="34"/>
       <c r="L80" s="92"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B81" s="23"/>
       <c r="C81" s="38"/>
       <c r="D81" s="36"/>
@@ -41351,7 +40691,7 @@
       <c r="K81" s="34"/>
       <c r="L81" s="92"/>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="23"/>
       <c r="C82" s="38"/>
       <c r="D82" s="36"/>
@@ -41364,7 +40704,7 @@
       <c r="K82" s="34"/>
       <c r="L82" s="92"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B83" s="23"/>
       <c r="C83" s="38"/>
       <c r="D83" s="36"/>
@@ -41377,7 +40717,7 @@
       <c r="K83" s="34"/>
       <c r="L83" s="92"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="23"/>
       <c r="C84" s="38"/>
       <c r="D84" s="36"/>
@@ -41390,7 +40730,7 @@
       <c r="K84" s="34"/>
       <c r="L84" s="92"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B85" s="23"/>
       <c r="C85" s="38"/>
       <c r="D85" s="36"/>
@@ -41403,7 +40743,7 @@
       <c r="K85" s="34"/>
       <c r="L85" s="92"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B86" s="23"/>
       <c r="C86" s="38"/>
       <c r="D86" s="36"/>
@@ -41416,7 +40756,7 @@
       <c r="K86" s="34"/>
       <c r="L86" s="92"/>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B87" s="23"/>
       <c r="C87" s="38"/>
       <c r="D87" s="36"/>
@@ -41429,7 +40769,7 @@
       <c r="K87" s="34"/>
       <c r="L87" s="92"/>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="23"/>
       <c r="C88" s="38"/>
       <c r="D88" s="36"/>
@@ -41442,7 +40782,7 @@
       <c r="K88" s="34"/>
       <c r="L88" s="92"/>
     </row>
-    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="23"/>
       <c r="C89" s="38"/>
       <c r="D89" s="36"/>
@@ -41455,7 +40795,7 @@
       <c r="K89" s="34"/>
       <c r="L89" s="92"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="23"/>
       <c r="C90" s="38"/>
       <c r="D90" s="36"/>
@@ -41468,7 +40808,7 @@
       <c r="K90" s="34"/>
       <c r="L90" s="92"/>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B91" s="23"/>
       <c r="C91" s="38"/>
       <c r="D91" s="36"/>
@@ -41481,7 +40821,7 @@
       <c r="K91" s="34"/>
       <c r="L91" s="92"/>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="23"/>
       <c r="C92" s="38"/>
       <c r="D92" s="36"/>
@@ -41494,7 +40834,7 @@
       <c r="K92" s="34"/>
       <c r="L92" s="92"/>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B93" s="23"/>
       <c r="C93" s="38"/>
       <c r="D93" s="36"/>
@@ -41507,7 +40847,7 @@
       <c r="K93" s="34"/>
       <c r="L93" s="92"/>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="23"/>
       <c r="C94" s="38"/>
       <c r="D94" s="36"/>
@@ -41520,7 +40860,7 @@
       <c r="K94" s="34"/>
       <c r="L94" s="92"/>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="23"/>
       <c r="C95" s="38"/>
       <c r="D95" s="36"/>
@@ -41533,7 +40873,7 @@
       <c r="K95" s="34"/>
       <c r="L95" s="92"/>
     </row>
-    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="23"/>
       <c r="C96" s="38"/>
       <c r="D96" s="36"/>
@@ -41546,7 +40886,7 @@
       <c r="K96" s="34"/>
       <c r="L96" s="92"/>
     </row>
-    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B97" s="23"/>
       <c r="C97" s="38"/>
       <c r="D97" s="36"/>
@@ -41559,7 +40899,7 @@
       <c r="K97" s="34"/>
       <c r="L97" s="92"/>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B98" s="23"/>
       <c r="C98" s="90"/>
       <c r="D98" s="42"/>
@@ -41572,7 +40912,7 @@
       <c r="K98" s="34"/>
       <c r="L98" s="92"/>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B99" s="23"/>
       <c r="C99" s="38"/>
       <c r="D99" s="36"/>
@@ -41585,7 +40925,7 @@
       <c r="K99" s="34"/>
       <c r="L99" s="92"/>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B100" s="23"/>
       <c r="C100" s="38"/>
       <c r="D100" s="36"/>
@@ -41598,7 +40938,7 @@
       <c r="K100" s="34"/>
       <c r="L100" s="92"/>
     </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B101" s="23"/>
       <c r="C101" s="38"/>
       <c r="D101" s="36"/>
@@ -41611,7 +40951,7 @@
       <c r="K101" s="34"/>
       <c r="L101" s="92"/>
     </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B102" s="23"/>
       <c r="C102" s="38"/>
       <c r="D102" s="36"/>
@@ -41624,7 +40964,7 @@
       <c r="K102" s="34"/>
       <c r="L102" s="92"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B103" s="23"/>
       <c r="C103" s="33"/>
       <c r="D103" s="36"/>
@@ -41637,7 +40977,7 @@
       <c r="K103" s="34"/>
       <c r="L103" s="92"/>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B104" s="23"/>
       <c r="C104" s="33"/>
       <c r="D104" s="36"/>
@@ -41650,7 +40990,7 @@
       <c r="K104" s="34"/>
       <c r="L104" s="92"/>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B105" s="23"/>
       <c r="C105" s="56"/>
       <c r="D105" s="52"/>
@@ -41663,7 +41003,7 @@
       <c r="K105" s="34"/>
       <c r="L105" s="92"/>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B106" s="23"/>
       <c r="C106" s="90"/>
       <c r="D106" s="42"/>
@@ -41676,7 +41016,7 @@
       <c r="K106" s="34"/>
       <c r="L106" s="92"/>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B107" s="23"/>
       <c r="C107" s="38"/>
       <c r="D107" s="42"/>
@@ -41689,7 +41029,7 @@
       <c r="K107" s="34"/>
       <c r="L107" s="92"/>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B108" s="23"/>
       <c r="C108" s="33"/>
       <c r="D108" s="42"/>
@@ -41702,7 +41042,7 @@
       <c r="K108" s="34"/>
       <c r="L108" s="92"/>
     </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B109" s="23"/>
       <c r="C109" s="38"/>
       <c r="D109" s="42"/>
@@ -41715,7 +41055,7 @@
       <c r="K109" s="34"/>
       <c r="L109" s="92"/>
     </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B110" s="23"/>
       <c r="C110" s="56"/>
       <c r="D110" s="42"/>
@@ -41728,7 +41068,7 @@
       <c r="K110" s="55"/>
       <c r="L110" s="92"/>
     </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B111" s="23"/>
       <c r="C111" s="16"/>
       <c r="D111" s="36"/>
@@ -41741,7 +41081,7 @@
       <c r="K111" s="34"/>
       <c r="L111" s="92"/>
     </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B112" s="23"/>
       <c r="C112" s="56"/>
       <c r="D112" s="52"/>
@@ -41754,7 +41094,7 @@
       <c r="K112" s="55"/>
       <c r="L112" s="92"/>
     </row>
-    <row r="113" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B113" s="23"/>
       <c r="C113" s="90"/>
       <c r="D113" s="42"/>
@@ -41767,7 +41107,7 @@
       <c r="K113" s="34"/>
       <c r="L113" s="92"/>
     </row>
-    <row r="114" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B114" s="23"/>
       <c r="C114" s="90"/>
       <c r="D114" s="42"/>
@@ -41780,7 +41120,7 @@
       <c r="K114" s="34"/>
       <c r="L114" s="92"/>
     </row>
-    <row r="115" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B115" s="23"/>
       <c r="C115" s="38"/>
       <c r="D115" s="36"/>
@@ -41793,7 +41133,7 @@
       <c r="K115" s="34"/>
       <c r="L115" s="92"/>
     </row>
-    <row r="116" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B116" s="23"/>
       <c r="C116" s="38"/>
       <c r="D116" s="36"/>
@@ -41806,7 +41146,7 @@
       <c r="K116" s="34"/>
       <c r="L116" s="92"/>
     </row>
-    <row r="117" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B117" s="23"/>
       <c r="C117" s="33"/>
       <c r="D117" s="42"/>
@@ -41819,7 +41159,7 @@
       <c r="K117" s="34"/>
       <c r="L117" s="92"/>
     </row>
-    <row r="118" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B118" s="23"/>
       <c r="C118" s="56"/>
       <c r="D118" s="42"/>
@@ -41832,7 +41172,7 @@
       <c r="K118" s="34"/>
       <c r="L118" s="92"/>
     </row>
-    <row r="119" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B119" s="23"/>
       <c r="C119" s="38"/>
       <c r="D119" s="36"/>
@@ -41845,7 +41185,7 @@
       <c r="K119" s="34"/>
       <c r="L119" s="92"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B120" s="23"/>
       <c r="C120" s="33"/>
       <c r="D120" s="42"/>
@@ -41858,7 +41198,7 @@
       <c r="K120" s="34"/>
       <c r="L120" s="92"/>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B121" s="23"/>
       <c r="C121" s="56"/>
       <c r="D121" s="52"/>
@@ -41871,7 +41211,7 @@
       <c r="K121" s="34"/>
       <c r="L121" s="92"/>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B122" s="23"/>
       <c r="C122" s="90"/>
       <c r="D122" s="42"/>
@@ -41884,7 +41224,7 @@
       <c r="K122" s="34"/>
       <c r="L122" s="92"/>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B123" s="23"/>
       <c r="C123" s="38"/>
       <c r="D123" s="36"/>
@@ -41897,7 +41237,7 @@
       <c r="K123" s="34"/>
       <c r="L123" s="92"/>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B124" s="23"/>
       <c r="C124" s="38"/>
       <c r="D124" s="36"/>
@@ -41910,7 +41250,7 @@
       <c r="K124" s="34"/>
       <c r="L124" s="92"/>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B125" s="23"/>
       <c r="C125" s="38"/>
       <c r="D125" s="36"/>
@@ -41923,7 +41263,7 @@
       <c r="K125" s="34"/>
       <c r="L125" s="92"/>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B126" s="23"/>
       <c r="C126" s="38"/>
       <c r="D126" s="36"/>
@@ -41936,7 +41276,7 @@
       <c r="K126" s="34"/>
       <c r="L126" s="92"/>
     </row>
-    <row r="127" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B127" s="23"/>
       <c r="C127" s="38"/>
       <c r="D127" s="36"/>
@@ -41949,7 +41289,7 @@
       <c r="K127" s="34"/>
       <c r="L127" s="92"/>
     </row>
-    <row r="128" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B128" s="23"/>
       <c r="C128" s="90"/>
       <c r="D128" s="42"/>
@@ -41962,7 +41302,7 @@
       <c r="K128" s="34"/>
       <c r="L128" s="92"/>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B129" s="23"/>
       <c r="C129" s="38"/>
       <c r="D129" s="36"/>
@@ -41975,7 +41315,7 @@
       <c r="K129" s="34"/>
       <c r="L129" s="92"/>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B130" s="23"/>
       <c r="C130" s="38"/>
       <c r="D130" s="36"/>
@@ -41988,7 +41328,7 @@
       <c r="K130" s="34"/>
       <c r="L130" s="92"/>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B131" s="23"/>
       <c r="C131" s="94"/>
       <c r="D131" s="36"/>
@@ -42001,7 +41341,7 @@
       <c r="K131" s="34"/>
       <c r="L131" s="92"/>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B132" s="23"/>
       <c r="C132" s="56"/>
       <c r="D132" s="42"/>
@@ -42014,7 +41354,7 @@
       <c r="K132" s="34"/>
       <c r="L132" s="92"/>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B133" s="23"/>
       <c r="C133" s="90"/>
       <c r="D133" s="42"/>
@@ -42027,7 +41367,7 @@
       <c r="K133" s="34"/>
       <c r="L133" s="92"/>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B134" s="23"/>
       <c r="C134" s="38"/>
       <c r="D134" s="36"/>
@@ -42040,7 +41380,7 @@
       <c r="K134" s="34"/>
       <c r="L134" s="92"/>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B135" s="23"/>
       <c r="C135" s="38"/>
       <c r="D135" s="36"/>
@@ -42053,7 +41393,7 @@
       <c r="K135" s="34"/>
       <c r="L135" s="92"/>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B136" s="23"/>
       <c r="C136" s="38"/>
       <c r="D136" s="36"/>
@@ -42066,7 +41406,7 @@
       <c r="K136" s="34"/>
       <c r="L136" s="92"/>
     </row>
-    <row r="137" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B137" s="23"/>
       <c r="C137" s="94"/>
       <c r="D137" s="36"/>
@@ -42079,7 +41419,7 @@
       <c r="K137" s="34"/>
       <c r="L137" s="92"/>
     </row>
-    <row r="138" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B138" s="23"/>
       <c r="C138" s="95"/>
       <c r="D138" s="52"/>
@@ -42092,7 +41432,7 @@
       <c r="K138" s="34"/>
       <c r="L138" s="92"/>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B139" s="23"/>
       <c r="C139" s="90"/>
       <c r="D139" s="42"/>
@@ -42105,7 +41445,7 @@
       <c r="K139" s="34"/>
       <c r="L139" s="92"/>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B140" s="23"/>
       <c r="C140" s="38"/>
       <c r="D140" s="36"/>
@@ -42118,7 +41458,7 @@
       <c r="K140" s="34"/>
       <c r="L140" s="92"/>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B141" s="23"/>
       <c r="C141" s="38"/>
       <c r="D141" s="36"/>
@@ -42131,7 +41471,7 @@
       <c r="K141" s="34"/>
       <c r="L141" s="92"/>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B142" s="23"/>
       <c r="C142" s="38"/>
       <c r="D142" s="36"/>
@@ -42144,7 +41484,7 @@
       <c r="K142" s="34"/>
       <c r="L142" s="92"/>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B143" s="23"/>
       <c r="C143" s="38"/>
       <c r="D143" s="36"/>
@@ -42157,7 +41497,7 @@
       <c r="K143" s="34"/>
       <c r="L143" s="92"/>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B144" s="23"/>
       <c r="C144" s="38"/>
       <c r="D144" s="36"/>
@@ -42170,7 +41510,7 @@
       <c r="K144" s="34"/>
       <c r="L144" s="92"/>
     </row>
-    <row r="145" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B145" s="23"/>
       <c r="C145" s="90"/>
       <c r="D145" s="42"/>
@@ -42183,7 +41523,7 @@
       <c r="K145" s="34"/>
       <c r="L145" s="92"/>
     </row>
-    <row r="146" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B146" s="23"/>
       <c r="C146" s="38"/>
       <c r="D146" s="36"/>
@@ -42196,7 +41536,7 @@
       <c r="K146" s="34"/>
       <c r="L146" s="92"/>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B147" s="23"/>
       <c r="C147" s="90"/>
       <c r="D147" s="42"/>
@@ -42209,7 +41549,7 @@
       <c r="K147" s="34"/>
       <c r="L147" s="92"/>
     </row>
-    <row r="148" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B148" s="23"/>
       <c r="C148" s="38"/>
       <c r="D148" s="36"/>
@@ -42222,7 +41562,7 @@
       <c r="K148" s="34"/>
       <c r="L148" s="92"/>
     </row>
-    <row r="149" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B149" s="23"/>
       <c r="C149" s="38"/>
       <c r="D149" s="36"/>
@@ -42235,7 +41575,7 @@
       <c r="K149" s="34"/>
       <c r="L149" s="92"/>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B150" s="23"/>
       <c r="C150" s="96"/>
       <c r="D150" s="42"/>
@@ -42248,7 +41588,7 @@
       <c r="K150" s="34"/>
       <c r="L150" s="92"/>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B151" s="23"/>
       <c r="C151" s="95"/>
       <c r="D151" s="42"/>
@@ -42261,7 +41601,7 @@
       <c r="K151" s="34"/>
       <c r="L151" s="92"/>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B152" s="23"/>
       <c r="C152" s="90"/>
       <c r="D152" s="42"/>
@@ -42274,7 +41614,7 @@
       <c r="K152" s="34"/>
       <c r="L152" s="92"/>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B153" s="23"/>
       <c r="C153" s="38"/>
       <c r="D153" s="36"/>
@@ -42287,7 +41627,7 @@
       <c r="K153" s="34"/>
       <c r="L153" s="92"/>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B154" s="23"/>
       <c r="C154" s="38"/>
       <c r="D154" s="36"/>
@@ -42300,7 +41640,7 @@
       <c r="K154" s="34"/>
       <c r="L154" s="92"/>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B155" s="23"/>
       <c r="C155" s="38"/>
       <c r="D155" s="36"/>
@@ -42313,7 +41653,7 @@
       <c r="K155" s="34"/>
       <c r="L155" s="92"/>
     </row>
-    <row r="156" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B156" s="23"/>
       <c r="C156" s="38"/>
       <c r="D156" s="36"/>
@@ -42326,7 +41666,7 @@
       <c r="K156" s="34"/>
       <c r="L156" s="92"/>
     </row>
-    <row r="157" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B157" s="23"/>
       <c r="C157" s="56"/>
       <c r="D157" s="42"/>
@@ -42339,7 +41679,7 @@
       <c r="K157" s="55"/>
       <c r="L157" s="92"/>
     </row>
-    <row r="158" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B158" s="23"/>
       <c r="C158" s="16"/>
       <c r="D158" s="36"/>
@@ -42352,7 +41692,7 @@
       <c r="K158" s="34"/>
       <c r="L158" s="92"/>
     </row>
-    <row r="159" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B159" s="23"/>
       <c r="C159" s="56"/>
       <c r="D159" s="97"/>
@@ -42365,7 +41705,7 @@
       <c r="K159" s="55"/>
       <c r="L159" s="92"/>
     </row>
-    <row r="160" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B160" s="23"/>
       <c r="C160" s="98"/>
       <c r="D160" s="62"/>
@@ -42378,7 +41718,7 @@
       <c r="K160" s="34"/>
       <c r="L160" s="92"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B161" s="23"/>
       <c r="C161" s="33"/>
       <c r="D161" s="42"/>
@@ -42391,7 +41731,7 @@
       <c r="K161" s="34"/>
       <c r="L161" s="92"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B162" s="23"/>
       <c r="C162" s="33"/>
       <c r="D162" s="42"/>
@@ -42404,7 +41744,7 @@
       <c r="K162" s="34"/>
       <c r="L162" s="92"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B163" s="23"/>
       <c r="C163" s="98"/>
       <c r="D163" s="62"/>
@@ -42417,7 +41757,7 @@
       <c r="K163" s="34"/>
       <c r="L163" s="92"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B164" s="23"/>
       <c r="C164" s="33"/>
       <c r="D164" s="42"/>
@@ -42430,7 +41770,7 @@
       <c r="K164" s="34"/>
       <c r="L164" s="92"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B165" s="23"/>
       <c r="C165" s="33"/>
       <c r="D165" s="42"/>
@@ -42443,7 +41783,7 @@
       <c r="K165" s="34"/>
       <c r="L165" s="92"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B166" s="23"/>
       <c r="C166" s="33"/>
       <c r="D166" s="42"/>
@@ -42456,7 +41796,7 @@
       <c r="K166" s="43"/>
       <c r="L166" s="26"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B167" s="17"/>
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
@@ -42472,7 +41812,7 @@
       <c r="N167" s="32"/>
       <c r="O167" s="10"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B168" s="87"/>
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
@@ -42486,7 +41826,7 @@
       <c r="L168" s="29"/>
       <c r="M168" s="10"/>
     </row>
-    <row r="169" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="22"/>
       <c r="C169" s="16"/>
@@ -42503,7 +41843,7 @@
       <c r="N169" s="32"/>
       <c r="O169" s="32"/>
     </row>
-    <row r="170" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="23"/>
       <c r="C170" s="56"/>
@@ -42518,7 +41858,7 @@
       <c r="L170" s="26"/>
       <c r="M170" s="32"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B171" s="71"/>
       <c r="C171" s="45"/>
       <c r="D171" s="100"/>
@@ -42532,7 +41872,7 @@
       <c r="L171" s="26"/>
       <c r="M171" s="10"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B172" s="71"/>
       <c r="C172" s="45"/>
       <c r="D172" s="100"/>
@@ -42546,7 +41886,7 @@
       <c r="L172" s="26"/>
       <c r="M172" s="10"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B173" s="71"/>
       <c r="C173" s="45"/>
       <c r="D173" s="100"/>
@@ -42560,7 +41900,7 @@
       <c r="L173" s="26"/>
       <c r="M173" s="10"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B174" s="71"/>
       <c r="C174" s="45"/>
       <c r="D174" s="100"/>
@@ -42574,7 +41914,7 @@
       <c r="L174" s="26"/>
       <c r="M174" s="10"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B175" s="71"/>
       <c r="C175" s="45"/>
       <c r="D175" s="100"/>
@@ -42588,7 +41928,7 @@
       <c r="L175" s="26"/>
       <c r="M175" s="10"/>
     </row>
-    <row r="176" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="71"/>
       <c r="C176" s="72"/>
@@ -42604,7 +41944,7 @@
       <c r="M176" s="10"/>
       <c r="N176" s="30"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B177" s="17"/>
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
@@ -42618,7 +41958,7 @@
       <c r="L177" s="29"/>
       <c r="M177" s="10"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B178" s="87"/>
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
@@ -42632,7 +41972,7 @@
       <c r="L178" s="29"/>
       <c r="M178" s="10"/>
     </row>
-    <row r="179" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" s="31" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="22"/>
       <c r="C179" s="16"/>
@@ -42649,7 +41989,7 @@
       <c r="N179" s="32"/>
       <c r="O179" s="32"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B180" s="23"/>
       <c r="C180" s="56"/>
       <c r="D180" s="48"/>
@@ -42663,7 +42003,7 @@
       <c r="L180" s="26"/>
       <c r="M180" s="10"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B181" s="23"/>
       <c r="C181" s="45"/>
       <c r="D181" s="42"/>
@@ -42677,7 +42017,7 @@
       <c r="L181" s="26"/>
       <c r="M181" s="10"/>
     </row>
-    <row r="182" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="78"/>
       <c r="B182" s="71"/>
       <c r="C182" s="72"/>
@@ -42693,7 +42033,7 @@
       <c r="M182" s="10"/>
       <c r="N182" s="30"/>
     </row>
-    <row r="183" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="65"/>
       <c r="C183" s="66"/>
@@ -42710,7 +42050,7 @@
       <c r="N183" s="32"/>
       <c r="O183" s="32"/>
     </row>
-    <row r="184" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="8"/>
@@ -42727,7 +42067,7 @@
       <c r="N184" s="32"/>
       <c r="O184" s="32"/>
     </row>
-    <row r="185" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="8"/>
@@ -42744,7 +42084,7 @@
       <c r="N185" s="32"/>
       <c r="O185" s="32"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B186" s="2"/>
       <c r="C186" s="8"/>
       <c r="E186" s="19"/>
